--- a/data/turm/MEC-1NB.xlsx
+++ b/data/turm/MEC-1NB.xlsx
@@ -990,22 +990,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anderson-Tornearia-1NB, Anderson-Tornearia-1NB, Anderson-Tornearia-1NB, Anderson-Tornearia-1NB]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Humberto-M.T.F.-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Sandro M.-Comandos Eletricos-1NB, Sandro M.-Comandos Eletricos-1NB, Sandro M.-Comandos Eletricos-1NB, Sandro M.-Comandos Eletricos-1NB]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rachel-T.M; Metalicos-1NB, Rachel-T.M; Metalicos-1NB, Rachel-T.M; Metalicos-1NB, Rachel-T.M; Metalicos-1NB]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-E. D. N. D.-1NB, Gisele-E. D. N. D.-1NB, Gisele-E. D. N. D.-1NB, Gisele-E. D. N. D.-1NB]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Mayra-T. NãoMetalicos-1NB, Mayra-T. NãoMetalicos-1NB, Mayra-T. NãoMetalicos-1NB, Mayra-T. NãoMetalicos-1NB]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Humberto-M.T.F.-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Valmir-Caldeiraria-1NB, Valmir-Caldeiraria-1NB, Valmir-Caldeiraria-1NB, Valmir-Caldeiraria-1NB]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Suzanny-Trat. Termicos-1NB, Suzanny-Trat. Termicos-1NB, Suzanny-Trat. Termicos-1NB, Suzanny-Trat. Termicos-1NB]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Humberto-Desenho tecnico mecanico-T2-1NB, Humberto-Desenho tecnico mecanico-T2-1NB, Humberto-Desenho tecnico mecanico-T2-1NB, Humberto-Desenho tecnico mecanico-T2-1NB]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aselmo-Manut. Mot. End.-1NB, Aselmo-Manut. Mot. End.-1NB, Aselmo-Manut. Mot. End.-1NB, Aselmo-Manut. Mot. End.-1NB]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Weslei-Desenho tecnico mecanico-T1-1NB, Weslei-Desenho tecnico mecanico-T1-1NB, Weslei-Desenho tecnico mecanico-T1-1NB, Weslei-Desenho tecnico mecanico-T1-1NB]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-M.T.R.M.-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Victor S.-Ajustagem-1NB, Victor S.-Ajustagem-1NB, Victor S.-Ajustagem-1NB, Victor S.-Ajustagem-1NB]</t>
         </is>
       </c>
     </row>
@@ -1081,22 +1081,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Weslei-Metrologia 1-1NB, Weslei-Metrologia 1-1NB, Weslei-Metrologia 1-1NB, Weslei-Metrologia 1-1NB]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Suzanny-Metalografia-1NB, Suzanny-Metalografia-1NB, Suzanny-Metalografia-1NB, Suzanny-Metalografia-1NB]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Andre B.-Elet. Digi. Básica-1NB, Andre B.-Elet. Digi. Básica-1NB, Andre B.-Elet. Digi. Básica-1NB, Andre B.-Elet. Digi. Básica-1NB]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-M.T.R.M.-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/turm/MEC-1NB.xlsx
+++ b/data/turm/MEC-1NB.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Sandro-Comandos Eletricos-1NB, Weslei-Metrologia 1-1NB, Mayra-Tec. Mat. Não Metal.-1NB, Andre B.-Elet. Dig. Bas.-1NB]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Anderson-Tornearia-1NB, Anderson-Tornearia-1NB, Anderson-Tornearia-1NB, Anderson-Tornearia-1NB]</t>
+          <t>[Valmir-Caldeiraria-1NB, Suzanny-Metalografia-1NB, Anderson-Tornearia-1NB, Suzanny-Trat. Termicos-1NB]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Humberto-M.T.F.-</t>
+          <t>[Humberto-Desenho tecnico mecanico-T2-1NB, Humberto-Desenho tecnico mecanico-T2-1NB]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Sandro M.-Comandos Eletricos-1NB, Sandro M.-Comandos Eletricos-1NB, Sandro M.-Comandos Eletricos-1NB, Sandro M.-Comandos Eletricos-1NB]</t>
+          <t>[Sandro-Comandos Eletricos-1NB, Gisele-E. D. N. D.-1NB, Aselmo-Manut. Mot. End.-1NB, Victor-Ajustagem-1NB]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Rachel-T.M; Metalicos-1NB, Rachel-T.M; Metalicos-1NB, Rachel-T.M; Metalicos-1NB, Rachel-T.M; Metalicos-1NB]</t>
+          <t>Gilberto-M.T.R.M.-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Gisele-E. D. N. D.-1NB, Gisele-E. D. N. D.-1NB, Gisele-E. D. N. D.-1NB, Gisele-E. D. N. D.-1NB]</t>
+          <t>[Rachel-T.M. Metalicos-1NB, Weslei-Metrologia 1-1NB, Mayra-Tec. Mat. Não Metal.-1NB, Andre B.-Elet. Dig. Bas.-1NB]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Mayra-T. NãoMetalicos-1NB, Mayra-T. NãoMetalicos-1NB, Mayra-T. NãoMetalicos-1NB, Mayra-T. NãoMetalicos-1NB]</t>
+          <t>[Valmir-Caldeiraria-1NB, Suzanny-Metalografia-1NB, Anderson-Tornearia-1NB, Suzanny-Trat. Termicos-1NB]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Humberto-M.T.F.-</t>
+          <t>[Weslei-Desenho tecnico mecanico-T1-1NB, Humberto-Desenho tecnico mecanico-T2-1NB]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Valmir-Caldeiraria-1NB, Valmir-Caldeiraria-1NB, Valmir-Caldeiraria-1NB, Valmir-Caldeiraria-1NB]</t>
+          <t>[Sandro-Comandos Eletricos-1NB, Gisele-E. D. N. D.-1NB, Aselmo-Manut. Mot. End.-1NB, Victor-Ajustagem-1NB]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Suzanny-Trat. Termicos-1NB, Suzanny-Trat. Termicos-1NB, Suzanny-Trat. Termicos-1NB, Suzanny-Trat. Termicos-1NB]</t>
+          <t>Gilberto-M.T.R.M.-</t>
         </is>
       </c>
     </row>
@@ -1049,17 +1049,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Humberto-Desenho tecnico mecanico-T2-1NB, Humberto-Desenho tecnico mecanico-T2-1NB, Humberto-Desenho tecnico mecanico-T2-1NB, Humberto-Desenho tecnico mecanico-T2-1NB]</t>
+          <t>[Rachel-T.M. Metalicos-1NB, Weslei-Metrologia 1-1NB, Mayra-Tec. Mat. Não Metal.-1NB, Andre B.-Elet. Dig. Bas.-1NB]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Aselmo-Manut. Mot. End.-1NB, Aselmo-Manut. Mot. End.-1NB, Aselmo-Manut. Mot. End.-1NB, Aselmo-Manut. Mot. End.-1NB]</t>
+          <t>[Valmir-Caldeiraria-1NB, Suzanny-Metalografia-1NB, Anderson-Tornearia-1NB, Suzanny-Trat. Termicos-1NB]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Weslei-Desenho tecnico mecanico-T1-1NB, Weslei-Desenho tecnico mecanico-T1-1NB, Weslei-Desenho tecnico mecanico-T1-1NB, Weslei-Desenho tecnico mecanico-T1-1NB]</t>
+          <t>Humberto-M.T.F.-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Victor S.-Ajustagem-1NB, Victor S.-Ajustagem-1NB, Victor S.-Ajustagem-1NB, Victor S.-Ajustagem-1NB]</t>
+          <t>[Aselmo-Manut. Mot. End.-1NB, Gisele-E. D. N. D.-1NB, Victor-Ajustagem-1NB, Rachel-T.M. Metalicos-1NB]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia 1-1NB, Weslei-Metrologia 1-1NB, Weslei-Metrologia 1-1NB, Weslei-Metrologia 1-1NB]</t>
+          <t>[Rachel-T.M. Metalicos-1NB, Weslei-Metrologia 1-1NB, Mayra-Tec. Mat. Não Metal.-1NB, Andre B.-Elet. Dig. Bas.-1NB]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Suzanny-Metalografia-1NB, Suzanny-Metalografia-1NB, Suzanny-Metalografia-1NB, Suzanny-Metalografia-1NB]</t>
+          <t>[Valmir-Caldeiraria-1NB, Suzanny-Metalografia-1NB, Anderson-Tornearia-1NB, Suzanny-Trat. Termicos-1NB]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Andre B.-Elet. Digi. Básica-1NB, Andre B.-Elet. Digi. Básica-1NB, Andre B.-Elet. Digi. Básica-1NB, Andre B.-Elet. Digi. Básica-1NB]</t>
+          <t>Humberto-M.T.F.-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R.M.-</t>
+          <t>[-, Aselmo-Manut. Mot. End.-1NB, Victor-Ajustagem-1NB, Gisele-E. D. N. D.-1NB]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Weslei-Desenho tecnico mecanico-T1-1NB, Weslei-Desenho tecnico mecanico-T1-1NB]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1NB.xlsx
+++ b/data/turm/MEC-1NB.xlsx
@@ -985,12 +985,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Sandro-Comandos Eletricos-1NB, Weslei-Metrologia 1-1NB, Mayra-Tec. Mat. Não Metal.-1NB, Andre B.-Elet. Dig. Bas.-1NB]</t>
+          <t>[Sandro-Comandos Eletricos-1NB, Valmir-Caldeiraria-1NB, Anderson-Tornearia-1NB, Aselmo-Manut. Mot. End.-1NB]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Valmir-Caldeiraria-1NB, Suzanny-Metalografia-1NB, Anderson-Tornearia-1NB, Suzanny-Trat. Termicos-1NB]</t>
+          <t>[Suzanny-Metalografia-1NB, Suzanny-Trat. Termicos-1NB, Gisele-E. D. N. D.-1NB, Weslei-Metrologia 1-1NB]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Sandro-Comandos Eletricos-1NB, Gisele-E. D. N. D.-1NB, Aselmo-Manut. Mot. End.-1NB, Victor-Ajustagem-1NB]</t>
+          <t>[Andre B.-Elet. Dig. Bas.-1NB, Mayra-Tec. Mat. Não Metal.-1NB, Rachel-T.M. Metalicos-1NB, Victor-Ajustagem-1NB]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Rachel-T.M. Metalicos-1NB, Weslei-Metrologia 1-1NB, Mayra-Tec. Mat. Não Metal.-1NB, Andre B.-Elet. Dig. Bas.-1NB]</t>
+          <t>[Sandro-Comandos Eletricos-1NB, Valmir-Caldeiraria-1NB, Anderson-Tornearia-1NB, Aselmo-Manut. Mot. End.-1NB]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Valmir-Caldeiraria-1NB, Suzanny-Metalografia-1NB, Anderson-Tornearia-1NB, Suzanny-Trat. Termicos-1NB]</t>
+          <t>[Suzanny-Metalografia-1NB, Suzanny-Trat. Termicos-1NB, Gisele-E. D. N. D.-1NB, Weslei-Metrologia 1-1NB]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Sandro-Comandos Eletricos-1NB, Gisele-E. D. N. D.-1NB, Aselmo-Manut. Mot. End.-1NB, Victor-Ajustagem-1NB]</t>
+          <t>[Andre B.-Elet. Dig. Bas.-1NB, Mayra-Tec. Mat. Não Metal.-1NB, Rachel-T.M. Metalicos-1NB, Victor-Ajustagem-1NB]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Rachel-T.M. Metalicos-1NB, Weslei-Metrologia 1-1NB, Mayra-Tec. Mat. Não Metal.-1NB, Andre B.-Elet. Dig. Bas.-1NB]</t>
+          <t>[Sandro-Comandos Eletricos-1NB, Valmir-Caldeiraria-1NB, Anderson-Tornearia-1NB, Aselmo-Manut. Mot. End.-1NB]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Valmir-Caldeiraria-1NB, Suzanny-Metalografia-1NB, Anderson-Tornearia-1NB, Suzanny-Trat. Termicos-1NB]</t>
+          <t>[Suzanny-Metalografia-1NB, Suzanny-Trat. Termicos-1NB, Gisele-E. D. N. D.-1NB, Weslei-Metrologia 1-1NB]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>[Andre B.-Elet. Dig. Bas.-1NB, Mayra-Tec. Mat. Não Metal.-1NB, Rachel-T.M. Metalicos-1NB, Victor-Ajustagem-1NB]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>Gilberto-M.T.R.M.-</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[Aselmo-Manut. Mot. End.-1NB, Gisele-E. D. N. D.-1NB, Victor-Ajustagem-1NB, Rachel-T.M. Metalicos-1NB]</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Rachel-T.M. Metalicos-1NB, Weslei-Metrologia 1-1NB, Mayra-Tec. Mat. Não Metal.-1NB, Andre B.-Elet. Dig. Bas.-1NB]</t>
+          <t>[Sandro-Comandos Eletricos-1NB, Valmir-Caldeiraria-1NB, Anderson-Tornearia-1NB, Aselmo-Manut. Mot. End.-1NB]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Valmir-Caldeiraria-1NB, Suzanny-Metalografia-1NB, Anderson-Tornearia-1NB, Suzanny-Trat. Termicos-1NB]</t>
+          <t>[Suzanny-Metalografia-1NB, Suzanny-Trat. Termicos-1NB, Gisele-E. D. N. D.-1NB, Weslei-Metrologia 1-1NB]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[-, Aselmo-Manut. Mot. End.-1NB, Victor-Ajustagem-1NB, Gisele-E. D. N. D.-1NB]</t>
+          <t>[Andre B.-Elet. Dig. Bas.-1NB, Mayra-Tec. Mat. Não Metal.-1NB, Rachel-T.M. Metalicos-1NB, Victor-Ajustagem-1NB]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/turm/MEC-1NB.xlsx
+++ b/data/turm/MEC-1NB.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Sandro-Comandos Eletricos-1NB, Valmir-Caldeiraria-1NB, Anderson-Tornearia-1NB, Aselmo-Manut. Mot. End.-1NB]</t>
+          <t>Gilberto-M.T.R</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Suzanny-Metalografia-1NB, Suzanny-Trat. Termicos-1NB, Gisele-E. D. N. D.-1NB, Weslei-Metrologia 1-1NB]</t>
+          <t>[Suzanny-Metalografia, Suzanny-Trat. Termicos, Victor-Ajustagem, Valmir-Caldeiraria]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Humberto-Desenho tecnico mecanico-T2-1NB, Humberto-Desenho tecnico mecanico-T2-1NB]</t>
+          <t>[Weslei-Metrologia 1, Gisele-E. D. N. D., Mayra-Tec. Mat. Não Metal., Rachel-T.M. Metalicos]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Andre B.-Elet. Dig. Bas.-1NB, Mayra-Tec. Mat. Não Metal.-1NB, Rachel-T.M. Metalicos-1NB, Victor-Ajustagem-1NB]</t>
+          <t>[Suzanny-Metalografia, Valmir-Caldeiraria, Victor-Ajustagem, Suzanny-Trat. Termicos]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R.M.-</t>
+          <t>Gilberto-M.T.R</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Sandro-Comandos Eletricos-1NB, Valmir-Caldeiraria-1NB, Anderson-Tornearia-1NB, Aselmo-Manut. Mot. End.-1NB]</t>
+          <t>Gilberto-M.T.R</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Suzanny-Metalografia-1NB, Suzanny-Trat. Termicos-1NB, Gisele-E. D. N. D.-1NB, Weslei-Metrologia 1-1NB]</t>
+          <t>Humberto-M.T</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Weslei-Desenho tecnico mecanico-T1-1NB, Humberto-Desenho tecnico mecanico-T2-1NB]</t>
+          <t>[Weslei-Metrologia 1, Gisele-E. D. N. D., Mayra-Tec. Mat. Não Metal., Rachel-T.M. Metalicos]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Andre B.-Elet. Dig. Bas.-1NB, Mayra-Tec. Mat. Não Metal.-1NB, Rachel-T.M. Metalicos-1NB, Victor-Ajustagem-1NB]</t>
+          <t>[Weslei-Desenho tecnico mecanico, Humberto-Desenho tecnico mecanico]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R.M.-</t>
+          <t>[Anderson-Tornearia, Aselmo-Manut. Mot. End., Sandro-Comandos Eletricos, Andre B.-Elet. Dig. Bas.]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Sandro-Comandos Eletricos-1NB, Valmir-Caldeiraria-1NB, Anderson-Tornearia-1NB, Aselmo-Manut. Mot. End.-1NB]</t>
+          <t>[Victor-Ajustagem, Valmir-Caldeiraria, Suzanny-Trat. Termicos, Suzanny-Metalografia]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Suzanny-Metalografia-1NB, Suzanny-Trat. Termicos-1NB, Gisele-E. D. N. D.-1NB, Weslei-Metrologia 1-1NB]</t>
+          <t>Humberto-M.T</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Humberto-M.T.F.-</t>
+          <t>[Weslei-Metrologia 1, Gisele-E. D. N. D., Mayra-Tec. Mat. Não Metal., Rachel-T.M. Metalicos]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Andre B.-Elet. Dig. Bas.-1NB, Mayra-Tec. Mat. Não Metal.-1NB, Rachel-T.M. Metalicos-1NB, Victor-Ajustagem-1NB]</t>
+          <t>[Weslei-Desenho tecnico mecanico, Humberto-Desenho tecnico mecanico]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R.M.-</t>
+          <t>[Anderson-Tornearia, Aselmo-Manut. Mot. End., Sandro-Comandos Eletricos, Andre B.-Elet. Dig. Bas.]</t>
         </is>
       </c>
     </row>
@@ -1081,31 +1081,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Sandro-Comandos Eletricos-1NB, Valmir-Caldeiraria-1NB, Anderson-Tornearia-1NB, Aselmo-Manut. Mot. End.-1NB]</t>
+          <t>[Victor-Ajustagem, Valmir-Caldeiraria, Suzanny-Trat. Termicos, Suzanny-Metalografia]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Suzanny-Metalografia-1NB, Suzanny-Trat. Termicos-1NB, Gisele-E. D. N. D.-1NB, Weslei-Metrologia 1-1NB]</t>
+          <t>[Anderson-Tornearia, Sandro-Comandos Eletricos, Andre B.-Elet. Dig. Bas., Aselmo-Manut. Mot. End.]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Humberto-M.T.F.-</t>
+          <t>[Weslei-Metrologia 1, Gisele-E. D. N. D., Mayra-Tec. Mat. Não Metal., Rachel-T.M. Metalicos]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Andre B.-Elet. Dig. Bas.-1NB, Mayra-Tec. Mat. Não Metal.-1NB, Rachel-T.M. Metalicos-1NB, Victor-Ajustagem-1NB]</t>
+          <t>[Weslei-Desenho tecnico mecanico, Humberto-Desenho tecnico mecanico]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Weslei-Desenho tecnico mecanico-T1-1NB, Weslei-Desenho tecnico mecanico-T1-1NB]</t>
+          <t>[Anderson-Tornearia, Aselmo-Manut. Mot. End., Sandro-Comandos Eletricos, Andre B.-Elet. Dig. Bas.]</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/turm/MEC-1NB.xlsx
+++ b/data/turm/MEC-1NB.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>[Humberto-Desenho tecnico mecanico, Weslei-Desenho tecnico mecanico]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[Suzanny-Metalografia, Mayra-Tec. Mat. Não Metal., Suzanny-Trat. Termicos, Victor-Ajustagem]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[Aselmo-Manut. Mot. End., Weslei-Metrologia 1, Andre B.-Elet. Dig. Bas., Valmir-Caldeiraria]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Gilberto-M.T.R</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>[Suzanny-Metalografia, Suzanny-Trat. Termicos, Victor-Ajustagem, Valmir-Caldeiraria]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[Weslei-Metrologia 1, Gisele-E. D. N. D., Mayra-Tec. Mat. Não Metal., Rachel-T.M. Metalicos]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[Suzanny-Metalografia, Valmir-Caldeiraria, Victor-Ajustagem, Suzanny-Trat. Termicos]</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R</t>
+          <t>[Sandro-Comandos Eletricos, Victor-Ajustagem, Gisele-E. D. N. D., Valmir-Caldeiraria]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R</t>
+          <t>[Humberto-Desenho tecnico mecanico, Weslei-Desenho tecnico mecanico]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>[Suzanny-Metalografia, Mayra-Tec. Mat. Não Metal., Weslei-Metrologia 1, Anderson-Tornearia]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[Rachel-T.M. Metalicos, Gisele-E. D. N. D., Andre B.-Elet. Dig. Bas., Weslei-Metrologia 1]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Humberto-M.T</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[Weslei-Metrologia 1, Gisele-E. D. N. D., Mayra-Tec. Mat. Não Metal., Rachel-T.M. Metalicos]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[Weslei-Desenho tecnico mecanico, Humberto-Desenho tecnico mecanico]</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Anderson-Tornearia, Aselmo-Manut. Mot. End., Sandro-Comandos Eletricos, Andre B.-Elet. Dig. Bas.]</t>
+          <t>[Sandro-Comandos Eletricos, Aselmo-Manut. Mot. End., Andre B.-Elet. Dig. Bas., Valmir-Caldeiraria]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Victor-Ajustagem, Valmir-Caldeiraria, Suzanny-Trat. Termicos, Suzanny-Metalografia]</t>
+          <t>[Humberto-Desenho tecnico mecanico, Weslei-Desenho tecnico mecanico]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>[Suzanny-Trat. Termicos, Suzanny-Metalografia, Anderson-Tornearia, Victor-Ajustagem]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[Rachel-T.M. Metalicos, Anderson-Tornearia, Mayra-Tec. Mat. Não Metal., Andre B.-Elet. Dig. Bas.]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Humberto-M.T</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>[Weslei-Metrologia 1, Gisele-E. D. N. D., Mayra-Tec. Mat. Não Metal., Rachel-T.M. Metalicos]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>[Weslei-Desenho tecnico mecanico, Humberto-Desenho tecnico mecanico]</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Anderson-Tornearia, Aselmo-Manut. Mot. End., Sandro-Comandos Eletricos, Andre B.-Elet. Dig. Bas.]</t>
+          <t>[Sandro-Comandos Eletricos, Aselmo-Manut. Mot. End., Gisele-E. D. N. D., Rachel-T.M. Metalicos]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Victor-Ajustagem, Valmir-Caldeiraria, Suzanny-Trat. Termicos, Suzanny-Metalografia]</t>
+          <t>[Victor-Ajustagem, Mayra-Tec. Mat. Não Metal., Anderson-Tornearia, Suzanny-Trat. Termicos]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Anderson-Tornearia, Sandro-Comandos Eletricos, Andre B.-Elet. Dig. Bas., Aselmo-Manut. Mot. End.]</t>
+          <t>Gilberto-M.T.R</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia 1, Gisele-E. D. N. D., Mayra-Tec. Mat. Não Metal., Rachel-T.M. Metalicos]</t>
+          <t>[Suzanny-Metalografia, Suzanny-Trat. Termicos, Sandro-Comandos Eletricos, Weslei-Metrologia 1]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Weslei-Desenho tecnico mecanico, Humberto-Desenho tecnico mecanico]</t>
+          <t>Gilberto-M.T.R</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Anderson-Tornearia, Aselmo-Manut. Mot. End., Sandro-Comandos Eletricos, Andre B.-Elet. Dig. Bas.]</t>
+          <t>[Rachel-T.M. Metalicos, Aselmo-Manut. Mot. End., Gisele-E. D. N. D., Valmir-Caldeiraria]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1NB.xlsx
+++ b/data/turm/MEC-1NB.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Humberto-Desenho tecnico mecanico, Weslei-Desenho tecnico mecanico]</t>
+          <t>[Valmir-Caldeiraria, Aselmo-Manut. Mot. End., Rachel-T.M. Metalicos, Mayra-Tec. Mat. Não Metal.]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Suzanny-Metalografia, Mayra-Tec. Mat. Não Metal., Suzanny-Trat. Termicos, Victor-Ajustagem]</t>
+          <t>[Mayra-Tec. Mat. Não Metal., Anderson-Tornearia, Gisele-E. D. N. D., Sandro-Comandos Eletricos]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Aselmo-Manut. Mot. End., Weslei-Metrologia 1, Andre B.-Elet. Dig. Bas., Valmir-Caldeiraria]</t>
+          <t>[Weslei-Desenho tecnico mecanico, Humberto-Desenho tecnico mecanico]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>Humberto-M.T</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>Gilberto-M.T.R</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[Sandro-Comandos Eletricos, Victor-Ajustagem, Gisele-E. D. N. D., Valmir-Caldeiraria]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Humberto-Desenho tecnico mecanico, Weslei-Desenho tecnico mecanico]</t>
+          <t>[Valmir-Caldeiraria, Aselmo-Manut. Mot. End., Rachel-T.M. Metalicos, Weslei-Metrologia 1]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Suzanny-Metalografia, Mayra-Tec. Mat. Não Metal., Weslei-Metrologia 1, Anderson-Tornearia]</t>
+          <t>[Mayra-Tec. Mat. Não Metal., Anderson-Tornearia, Gisele-E. D. N. D., Sandro-Comandos Eletricos]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Rachel-T.M. Metalicos, Gisele-E. D. N. D., Andre B.-Elet. Dig. Bas., Weslei-Metrologia 1]</t>
+          <t>[Weslei-Desenho tecnico mecanico, Humberto-Desenho tecnico mecanico]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Humberto-M.T</t>
+          <t>[Andre B.-Elet. Dig. Bas., Suzanny-Metalografia, Victor-Ajustagem, Anderson-Tornearia]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Sandro-Comandos Eletricos, Aselmo-Manut. Mot. End., Andre B.-Elet. Dig. Bas., Valmir-Caldeiraria]</t>
+          <t>Gilberto-M.T.R</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Humberto-Desenho tecnico mecanico, Weslei-Desenho tecnico mecanico]</t>
+          <t>[Valmir-Caldeiraria, Aselmo-Manut. Mot. End., Rachel-T.M. Metalicos, Weslei-Metrologia 1]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Suzanny-Trat. Termicos, Suzanny-Metalografia, Anderson-Tornearia, Victor-Ajustagem]</t>
+          <t>[Mayra-Tec. Mat. Não Metal., Victor-Ajustagem, Gisele-E. D. N. D., Sandro-Comandos Eletricos]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Rachel-T.M. Metalicos, Anderson-Tornearia, Mayra-Tec. Mat. Não Metal., Andre B.-Elet. Dig. Bas.]</t>
+          <t>[Weslei-Desenho tecnico mecanico, Humberto-Desenho tecnico mecanico]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Humberto-M.T</t>
+          <t>Gilberto-M.T.R</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Sandro-Comandos Eletricos, Aselmo-Manut. Mot. End., Gisele-E. D. N. D., Rachel-T.M. Metalicos]</t>
+          <t>[Andre B.-Elet. Dig. Bas., Suzanny-Metalografia, Victor-Ajustagem, Suzanny-Trat. Termicos]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Victor-Ajustagem, Mayra-Tec. Mat. Não Metal., Anderson-Tornearia, Suzanny-Trat. Termicos]</t>
+          <t>[Valmir-Caldeiraria, Aselmo-Manut. Mot. End., Rachel-T.M. Metalicos, Weslei-Metrologia 1]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R</t>
+          <t>[Suzanny-Trat. Termicos, Anderson-Tornearia, Gisele-E. D. N. D., Sandro-Comandos Eletricos]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Suzanny-Metalografia, Suzanny-Trat. Termicos, Sandro-Comandos Eletricos, Weslei-Metrologia 1]</t>
+          <t>[Weslei-Metrologia 1, Andre B.-Elet. Dig. Bas., Suzanny-Trat. Termicos, Suzanny-Metalografia]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R</t>
+          <t>[Suzanny-Metalografia, Suzanny-Trat. Termicos, Andre B.-Elet. Dig. Bas., Victor-Ajustagem]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Rachel-T.M. Metalicos, Aselmo-Manut. Mot. End., Gisele-E. D. N. D., Valmir-Caldeiraria]</t>
+          <t>Humberto-M.T</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1NB.xlsx
+++ b/data/turm/MEC-1NB.xlsx
@@ -985,17 +985,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Valmir-Caldeiraria, Aselmo-Manut. Mot. End., Rachel-T.M. Metalicos, Mayra-Tec. Mat. Não Metal.]</t>
+          <t>[Mayra-Tec. Mat. Não Metal., Andre B.-Elet. Dig. Bas., Weslei-Metrologia 1, Valmir-Caldeiraria]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Mayra-Tec. Mat. Não Metal., Anderson-Tornearia, Gisele-E. D. N. D., Sandro-Comandos Eletricos]</t>
+          <t>[Aselmo-Manut. Mot. End., Suzanny-Trat. Termicos, Sandro-Comandos Eletricos, Suzanny-Metalografia]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Weslei-Desenho tecnico mecanico, Humberto-Desenho tecnico mecanico]</t>
+          <t>[Gisele-E. D. N. D., Anderson-Tornearia, Victor-Ajustagem, Sandro-Comandos Eletricos]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1017,22 +1017,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Valmir-Caldeiraria, Aselmo-Manut. Mot. End., Rachel-T.M. Metalicos, Weslei-Metrologia 1]</t>
+          <t>[Mayra-Tec. Mat. Não Metal., Andre B.-Elet. Dig. Bas., Weslei-Metrologia 1, Valmir-Caldeiraria]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Mayra-Tec. Mat. Não Metal., Anderson-Tornearia, Gisele-E. D. N. D., Sandro-Comandos Eletricos]</t>
+          <t>[Aselmo-Manut. Mot. End., Suzanny-Trat. Termicos, Sandro-Comandos Eletricos, Suzanny-Metalografia]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Weslei-Desenho tecnico mecanico, Humberto-Desenho tecnico mecanico]</t>
+          <t>[Gisele-E. D. N. D., Anderson-Tornearia, Victor-Ajustagem, Rachel-T.M. Metalicos]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Andre B.-Elet. Dig. Bas., Suzanny-Metalografia, Victor-Ajustagem, Anderson-Tornearia]</t>
+          <t>[Humberto-Desenho tecnico mecanico, Weslei-Desenho tecnico mecanico]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Valmir-Caldeiraria, Aselmo-Manut. Mot. End., Rachel-T.M. Metalicos, Weslei-Metrologia 1]</t>
+          <t>[Mayra-Tec. Mat. Não Metal., Andre B.-Elet. Dig. Bas., Weslei-Metrologia 1, Valmir-Caldeiraria]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Mayra-Tec. Mat. Não Metal., Victor-Ajustagem, Gisele-E. D. N. D., Sandro-Comandos Eletricos]</t>
+          <t>[Aselmo-Manut. Mot. End., Suzanny-Trat. Termicos, Sandro-Comandos Eletricos, Suzanny-Metalografia]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Weslei-Desenho tecnico mecanico, Humberto-Desenho tecnico mecanico]</t>
+          <t>[Gisele-E. D. N. D., Anderson-Tornearia, Victor-Ajustagem, Rachel-T.M. Metalicos]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>[Humberto-Desenho tecnico mecanico, Weslei-Desenho tecnico mecanico]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>Gilberto-M.T.R</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[Andre B.-Elet. Dig. Bas., Suzanny-Metalografia, Victor-Ajustagem, Suzanny-Trat. Termicos]</t>
         </is>
       </c>
     </row>
@@ -1081,22 +1081,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Valmir-Caldeiraria, Aselmo-Manut. Mot. End., Rachel-T.M. Metalicos, Weslei-Metrologia 1]</t>
+          <t>[Mayra-Tec. Mat. Não Metal., Andre B.-Elet. Dig. Bas., Weslei-Metrologia 1, Valmir-Caldeiraria]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Suzanny-Trat. Termicos, Anderson-Tornearia, Gisele-E. D. N. D., Sandro-Comandos Eletricos]</t>
+          <t>[Aselmo-Manut. Mot. End., Suzanny-Trat. Termicos, Rachel-T.M. Metalicos, Suzanny-Metalografia]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia 1, Andre B.-Elet. Dig. Bas., Suzanny-Trat. Termicos, Suzanny-Metalografia]</t>
+          <t>[Gisele-E. D. N. D., Anderson-Tornearia, Victor-Ajustagem, Rachel-T.M. Metalicos]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Suzanny-Metalografia, Suzanny-Trat. Termicos, Andre B.-Elet. Dig. Bas., Victor-Ajustagem]</t>
+          <t>[Humberto-Desenho tecnico mecanico, Weslei-Desenho tecnico mecanico]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/turm/MEC-1NB.xlsx
+++ b/data/turm/MEC-1NB.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Mayra-Tec. Mat. Não Metal., Andre B.-Elet. Dig. Bas., Weslei-Metrologia 1, Valmir-Caldeiraria]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Aselmo-Manut. Mot. End., Suzanny-Trat. Termicos, Sandro-Comandos Eletricos, Suzanny-Metalografia]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Gisele-E. D. N. D., Anderson-Tornearia, Victor-Ajustagem, Sandro-Comandos Eletricos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Humberto-M.T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Mayra-Tec. Mat. Não Metal., Andre B.-Elet. Dig. Bas., Weslei-Metrologia 1, Valmir-Caldeiraria]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Aselmo-Manut. Mot. End., Suzanny-Trat. Termicos, Sandro-Comandos Eletricos, Suzanny-Metalografia]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Gisele-E. D. N. D., Anderson-Tornearia, Victor-Ajustagem, Rachel-T.M. Metalicos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Humberto-Desenho tecnico mecanico, Weslei-Desenho tecnico mecanico]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Mayra-Tec. Mat. Não Metal., Andre B.-Elet. Dig. Bas., Weslei-Metrologia 1, Valmir-Caldeiraria]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Aselmo-Manut. Mot. End., Suzanny-Trat. Termicos, Sandro-Comandos Eletricos, Suzanny-Metalografia]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Gisele-E. D. N. D., Anderson-Tornearia, Victor-Ajustagem, Rachel-T.M. Metalicos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Humberto-Desenho tecnico mecanico, Weslei-Desenho tecnico mecanico]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Mayra-Tec. Mat. Não Metal., Andre B.-Elet. Dig. Bas., Weslei-Metrologia 1, Valmir-Caldeiraria]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Aselmo-Manut. Mot. End., Suzanny-Trat. Termicos, Rachel-T.M. Metalicos, Suzanny-Metalografia]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Gisele-E. D. N. D., Anderson-Tornearia, Victor-Ajustagem, Rachel-T.M. Metalicos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Humberto-Desenho tecnico mecanico, Weslei-Desenho tecnico mecanico]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Humberto-M.T</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1NB.xlsx
+++ b/data/turm/MEC-1NB.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anderson-Tornearia, Sandro-Comandos Eletricos, Andre B.-Elet. Dig. Bas., Victor-Ajustagem]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Humberto-M.T</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Weslei-Desenho tecnico mecanico_T1, Humberto-Desenho tecnico mecanico_T2]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Humberto-M.T</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Mayra-Tec. Mat. Não Metal., Suzanny-Metalografia, Gisele-E. D. N. D., Rachel-T.M. Metalicos]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aselmo-Manut. Mot. End., Gisele-E. D. N. D., Andre B.-Elet. Dig. Bas., Suzanny-Trat. Termicos]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-E. D. N. D., Suzanny-Trat. Termicos, Weslei-Metrologia 1, Valmir-Caldeiraria]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Weslei-Metrologia 1, Suzanny-Trat. Termicos, Mayra-Tec. Mat. Não Metal., Rachel-T.M. Metalicos]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Weslei-Desenho tecnico mecanico_T1, Humberto-Desenho tecnico mecanico_T2]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rachel-T.M. Metalicos, Victor-Ajustagem, Gisele-E. D. N. D., Suzanny-Metalografia]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Suzanny-Metalografia, Sandro-Comandos Eletricos, Valmir-Caldeiraria, Victor-Ajustagem]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-M.T.R</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Sandro-Comandos Eletricos, Suzanny-Trat. Termicos, Weslei-Metrologia 1, Aselmo-Manut. Mot. End.]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Weslei-Desenho tecnico mecanico_T1, Humberto-Desenho tecnico mecanico_T2]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aselmo-Manut. Mot. End., Mayra-Tec. Mat. Não Metal., Valmir-Caldeiraria, Rachel-T.M. Metalicos]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Suzanny-Metalografia, Anderson-Tornearia, Andre B.-Elet. Dig. Bas., Victor-Ajustagem]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-M.T.R</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-M.T.R</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Andre B.-Elet. Dig. Bas., Aselmo-Manut. Mot. End., Anderson-Tornearia, Sandro-Comandos Eletricos]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anderson-Tornearia, Mayra-Tec. Mat. Não Metal., Weslei-Metrologia 1, Valmir-Caldeiraria]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1NB.xlsx
+++ b/data/turm/MEC-1NB.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Anderson-Tornearia, Sandro-Comandos Eletricos, Andre B.-Elet. Dig. Bas., Victor-Ajustagem]</t>
+          <t>Cleison-M.T.R</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Humberto-M.T</t>
+          <t>[Sandro-Comandos Elétricos, Ander. Edson.-Tornearia, Paulo R.-Trat. Térmicos, Renan-Elet. Digit. Básica]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Weslei-Desenho tecnico mecanico_T1, Humberto-Desenho tecnico mecanico_T2]</t>
+          <t>[Anselmo-Manut. Mot. End., SUBSTITUTO-T. não Metalicos, Ander. Edson.-Tornearia, Paulo R.-Trat. Térmicos]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Humberto-M.T</t>
+          <t>[Valmir-Calderaria, Gisele-E. D. N. D., Ander. Edson.-Tornearia, Rachel-T. M. Metalicos]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Mayra-Tec. Mat. Não Metal., Suzanny-Metalografia, Gisele-E. D. N. D., Rachel-T.M. Metalicos]</t>
+          <t>[Weslei-Des. Tec. Mec.T1, Suzanny-Des. Tec. Mec.T2]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Aselmo-Manut. Mot. End., Gisele-E. D. N. D., Andre B.-Elet. Dig. Bas., Suzanny-Trat. Termicos]</t>
+          <t>Humberto-M.T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Gisele-E. D. N. D., Suzanny-Trat. Termicos, Weslei-Metrologia 1, Valmir-Caldeiraria]</t>
+          <t>[Ismail-Metrologia 1, Ander. Edson.-Tornearia, SUBSTITUTO-T. não Metalicos, Renan-Elet. Digit. Básica]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia 1, Suzanny-Trat. Termicos, Mayra-Tec. Mat. Não Metal., Rachel-T.M. Metalicos]</t>
+          <t>[Anselmo-Manut. Mot. End., Gisele-E. D. N. D., Paulo R.-Trat. Térmicos, Sandro-Comandos Elétricos]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Weslei-Desenho tecnico mecanico_T1, Humberto-Desenho tecnico mecanico_T2]</t>
+          <t>[Anselmo-Manut. Mot. End., Valmir-Calderaria, Victor S.-Ajustagem, Paulo R.-Trat. Térmicos]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Rachel-T.M. Metalicos, Victor-Ajustagem, Gisele-E. D. N. D., Suzanny-Metalografia]</t>
+          <t>[Weslei-Des. Tec. Mec.T1, Suzanny-Des. Tec. Mec.T2]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Suzanny-Metalografia, Sandro-Comandos Eletricos, Valmir-Caldeiraria, Victor-Ajustagem]</t>
+          <t>Humberto-M.T</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R</t>
+          <t>[SUBSTITUTO-T. não Metalicos, Rachel-T. M. Metalicos, Victor S.-Ajustagem, Renan-Elet. Digit. Básica]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Sandro-Comandos Eletricos, Suzanny-Trat. Termicos, Weslei-Metrologia 1, Aselmo-Manut. Mot. End.]</t>
+          <t>[Victor S.-Ajustagem, Sandro-Comandos Elétricos, -, Gisele-E. D. N. D.]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Weslei-Desenho tecnico mecanico_T1, Humberto-Desenho tecnico mecanico_T2]</t>
+          <t>[Anselmo-Manut. Mot. End., Rachel-T. M. Metalicos, SUBSTITUTO-T. não Metalicos, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Aselmo-Manut. Mot. End., Mayra-Tec. Mat. Não Metal., Valmir-Caldeiraria, Rachel-T.M. Metalicos]</t>
+          <t>Cleison-M.T.R</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Suzanny-Metalografia, Anderson-Tornearia, Andre B.-Elet. Dig. Bas., Victor-Ajustagem]</t>
+          <t>Cleison-M.T.R</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R</t>
+          <t>[Victor S.-Ajustagem, Sandro-Comandos Elétricos, -, Ismail-Metrologia 1]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Gilberto-M.T.R</t>
+          <t>[Valmir-Calderaria, Ismail-Metrologia 1, Renan-Elet. Digit. Básica, Gisele-E. D. N. D.]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Andre B.-Elet. Dig. Bas., Aselmo-Manut. Mot. End., Anderson-Tornearia, Sandro-Comandos Eletricos]</t>
+          <t>[-, Ismail-Metrologia 1, Rachel-T. M. Metalicos, -]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Anderson-Tornearia, Mayra-Tec. Mat. Não Metal., Weslei-Metrologia 1, Valmir-Caldeiraria]</t>
+          <t>[Suzanny-Des. Tec. Mec.T2, Weslei-Des. Tec. Mec.T1]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1NB.xlsx
+++ b/data/turm/MEC-1NB.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cleison-M.T.R</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Sandro-Comandos Elétricos, Ander. Edson.-Tornearia, Paulo R.-Trat. Térmicos, Renan-Elet. Digit. Básica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Anselmo-Manut. Mot. End., SUBSTITUTO-T. não Metalicos, Ander. Edson.-Tornearia, Paulo R.-Trat. Térmicos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria, Gisele-E. D. N. D., Ander. Edson.-Tornearia, Rachel-T. M. Metalicos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Weslei-Des. Tec. Mec.T1, Suzanny-Des. Tec. Mec.T2]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Humberto-M.T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 1, Ander. Edson.-Tornearia, SUBSTITUTO-T. não Metalicos, Renan-Elet. Digit. Básica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Anselmo-Manut. Mot. End., Gisele-E. D. N. D., Paulo R.-Trat. Térmicos, Sandro-Comandos Elétricos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Anselmo-Manut. Mot. End., Valmir-Calderaria, Victor S.-Ajustagem, Paulo R.-Trat. Térmicos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Weslei-Des. Tec. Mec.T1, Suzanny-Des. Tec. Mec.T2]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Humberto-M.T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[SUBSTITUTO-T. não Metalicos, Rachel-T. M. Metalicos, Victor S.-Ajustagem, Renan-Elet. Digit. Básica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Victor S.-Ajustagem, Sandro-Comandos Elétricos, -, Gisele-E. D. N. D.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Anselmo-Manut. Mot. End., Rachel-T. M. Metalicos, SUBSTITUTO-T. não Metalicos, Valmir-Calderaria]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cleison-M.T.R</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cleison-M.T.R</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Victor S.-Ajustagem, Sandro-Comandos Elétricos, -, Ismail-Metrologia 1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria, Ismail-Metrologia 1, Renan-Elet. Digit. Básica, Gisele-E. D. N. D.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[-, Ismail-Metrologia 1, Rachel-T. M. Metalicos, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Tec. Mec.T2, Weslei-Des. Tec. Mec.T1]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
